--- a/user_candidate.xlsx
+++ b/user_candidate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>email</t>
   </si>
@@ -31,19 +31,25 @@
     <t>inboxId</t>
   </si>
   <si>
-    <t>291f5cb0-8f04-474a-b773-7843d7fece5d@mailslurp.biz</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Wongso Agustin</t>
-  </si>
-  <si>
-    <t>Zebracross1!</t>
-  </si>
-  <si>
-    <t>291f5cb0-8f04-474a-b773-7843d7fece5d</t>
+    <t>bagasalfiandi.dev@gmail.com</t>
+  </si>
+  <si>
+    <t>BagasA</t>
+  </si>
+  <si>
+    <t>Alfiandi</t>
+  </si>
+  <si>
+    <t>Wonkgigradar1!</t>
+  </si>
+  <si>
+    <t>rmdhnt.dev@gmail.com</t>
+  </si>
+  <si>
+    <t>Rmdht</t>
+  </si>
+  <si>
+    <t>tsani</t>
   </si>
 </sst>
 </file>
@@ -51,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -67,6 +73,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -74,14 +88,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,118 +103,117 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -218,19 +224,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,43 +386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,115 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,6 +415,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -451,6 +472,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -469,41 +510,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -514,156 +520,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,13 +997,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="55.625" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
@@ -1017,7 +1029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1030,13 +1042,28 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="291f5cb0-8f04-474a-b773-7843d7fece5d@mailslurp.biz" tooltip="mailto:291f5cb0-8f04-474a-b773-7843d7fece5d@mailslurp.biz"/>
+    <hyperlink ref="A2" r:id="rId1" display="bagasalfiandi.dev@gmail.com" tooltip="mailto:bagasalfiandi.dev@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="rmdhnt.dev@gmail.com" tooltip="mailto:rmdhnt.dev@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/user_candidate.xlsx
+++ b/user_candidate.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>email</t>
   </si>
   <si>
+    <t>inboxId</t>
+  </si>
+  <si>
     <t>firstName</t>
   </si>
   <si>
@@ -28,28 +31,79 @@
     <t>password</t>
   </si>
   <si>
-    <t>inboxId</t>
-  </si>
-  <si>
-    <t>bagasalfiandi.dev@gmail.com</t>
-  </si>
-  <si>
-    <t>BagasA</t>
-  </si>
-  <si>
-    <t>Alfiandi</t>
-  </si>
-  <si>
-    <t>Wonkgigradar1!</t>
-  </si>
-  <si>
-    <t>rmdhnt.dev@gmail.com</t>
-  </si>
-  <si>
-    <t>Rmdht</t>
-  </si>
-  <si>
-    <t>tsani</t>
+    <t>40cddbfe-f044-45a8-8466-25f5fafdb6d1@mailslurp.net</t>
+  </si>
+  <si>
+    <t>40cddbfe-f044-45a8-8466-25f5fafdb6d1</t>
+  </si>
+  <si>
+    <t>Jadun</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Larahost1!</t>
+  </si>
+  <si>
+    <t>fd57d8a3-5a16-4a8c-9c79-350659373a73@mailslurp.net</t>
+  </si>
+  <si>
+    <t>fd57d8a3-5a16-4a8c-9c79-350659373a73</t>
+  </si>
+  <si>
+    <t>Junar</t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+  <si>
+    <t>JunarAprilLin1!</t>
+  </si>
+  <si>
+    <t>d8afdd9e-c6d7-4866-8bc4-4e58b37d25af@mailslurp.net</t>
+  </si>
+  <si>
+    <t>d8afdd9e-c6d7-4866-8bc4-4e58b37d25af</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Lim</t>
+  </si>
+  <si>
+    <t>MaskotJakarta1!</t>
+  </si>
+  <si>
+    <t>0d5c4317-9e16-4f94-80ad-3fd5971977aa@mailslurp.net</t>
+  </si>
+  <si>
+    <t>0d5c4317-9e16-4f94-80ad-3fd5971977aa</t>
+  </si>
+  <si>
+    <t>Lunar</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>UbuntuJurnal1!</t>
+  </si>
+  <si>
+    <t>056c018f-1449-4806-a89b-a7aad97f6f19@mailslurp.net</t>
+  </si>
+  <si>
+    <t>056c018f-1449-4806-a89b-a7aad97f6f19</t>
+  </si>
+  <si>
+    <t>JoshBus</t>
+  </si>
+  <si>
+    <t>Mate</t>
+  </si>
+  <si>
+    <t>JbMate011!</t>
   </si>
 </sst>
 </file>
@@ -57,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -73,22 +127,83 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,6 +218,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -110,22 +248,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -134,45 +256,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,36 +266,6 @@
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -224,55 +278,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,121 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,45 +469,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,20 +489,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,117 +543,158 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,52 +706,28 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -997,19 +1048,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="55.625" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="24.125" customWidth="1"/>
-    <col min="5" max="5" width="44.625" customWidth="1"/>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="2" width="44.625" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1029,7 +1080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1042,28 +1093,85 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="bagasalfiandi.dev@gmail.com" tooltip="mailto:bagasalfiandi.dev@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="rmdhnt.dev@gmail.com" tooltip="mailto:rmdhnt.dev@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="40cddbfe-f044-45a8-8466-25f5fafdb6d1@mailslurp.net" tooltip="mailto:40cddbfe-f044-45a8-8466-25f5fafdb6d1@mailslurp.net"/>
+    <hyperlink ref="A3" r:id="rId2" display="fd57d8a3-5a16-4a8c-9c79-350659373a73@mailslurp.net"/>
+    <hyperlink ref="A4" r:id="rId3" display="d8afdd9e-c6d7-4866-8bc4-4e58b37d25af@mailslurp.net"/>
+    <hyperlink ref="A5" r:id="rId4" display="0d5c4317-9e16-4f94-80ad-3fd5971977aa@mailslurp.net"/>
+    <hyperlink ref="A6" r:id="rId5" display="056c018f-1449-4806-a89b-a7aad97f6f19@mailslurp.net"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/user_candidate.xlsx
+++ b/user_candidate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14730"/>
+    <workbookView windowWidth="12705" windowHeight="14550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>email</t>
   </si>
@@ -31,10 +31,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>40cddbfe-f044-45a8-8466-25f5fafdb6d1@mailslurp.net</t>
-  </si>
-  <si>
-    <t>40cddbfe-f044-45a8-8466-25f5fafdb6d1</t>
+    <t>5c2a7826-bbf4-4bc7-bf59-095eb60e2a7e@mailslurp.net</t>
+  </si>
+  <si>
+    <t>5c2a7826-bbf4-4bc7-bf59-095eb60e2a7e</t>
   </si>
   <si>
     <t>Jadun</t>
@@ -46,40 +46,40 @@
     <t>Larahost1!</t>
   </si>
   <si>
-    <t>fd57d8a3-5a16-4a8c-9c79-350659373a73@mailslurp.net</t>
-  </si>
-  <si>
-    <t>fd57d8a3-5a16-4a8c-9c79-350659373a73</t>
+    <t>1106ad90-d4a8-43d9-8491-888273aaf8d1@mailslurp.net</t>
+  </si>
+  <si>
+    <t>1106ad90-d4a8-43d9-8491-888273aaf8d1</t>
   </si>
   <si>
     <t>Junar</t>
   </si>
   <si>
-    <t>Lin</t>
+    <t>LinDoe</t>
   </si>
   <si>
     <t>JunarAprilLin1!</t>
   </si>
   <si>
-    <t>d8afdd9e-c6d7-4866-8bc4-4e58b37d25af@mailslurp.net</t>
-  </si>
-  <si>
-    <t>d8afdd9e-c6d7-4866-8bc4-4e58b37d25af</t>
+    <t>7186d82d-d436-4d19-8ae1-41a5fbcb17c8@mailslurp.net</t>
+  </si>
+  <si>
+    <t>7186d82d-d436-4d19-8ae1-41a5fbcb17c8</t>
   </si>
   <si>
     <t>Billy</t>
   </si>
   <si>
-    <t>Lim</t>
+    <t>LimDoe</t>
   </si>
   <si>
     <t>MaskotJakarta1!</t>
   </si>
   <si>
-    <t>0d5c4317-9e16-4f94-80ad-3fd5971977aa@mailslurp.net</t>
-  </si>
-  <si>
-    <t>0d5c4317-9e16-4f94-80ad-3fd5971977aa</t>
+    <t>38984ee7-4b30-4681-8982-6a10144a1c61@mailslurp.net</t>
+  </si>
+  <si>
+    <t>38984ee7-4b30-4681-8982-6a10144a1c61</t>
   </si>
   <si>
     <t>Lunar</t>
@@ -91,10 +91,10 @@
     <t>UbuntuJurnal1!</t>
   </si>
   <si>
-    <t>056c018f-1449-4806-a89b-a7aad97f6f19@mailslurp.net</t>
-  </si>
-  <si>
-    <t>056c018f-1449-4806-a89b-a7aad97f6f19</t>
+    <t>c9369e67-8a44-4946-b7ec-2b5e2311decc@mailslurp.net</t>
+  </si>
+  <si>
+    <t>c9369e67-8a44-4946-b7ec-2b5e2311decc</t>
   </si>
   <si>
     <t>JoshBus</t>
@@ -104,6 +104,51 @@
   </si>
   <si>
     <t>JbMate011!</t>
+  </si>
+  <si>
+    <t>0eecb53e-7ecb-4305-ba02-d374a5735b8f@mailslurp.net</t>
+  </si>
+  <si>
+    <t>0eecb53e-7ecb-4305-ba02-d374a5735b8f</t>
+  </si>
+  <si>
+    <t>Holly</t>
+  </si>
+  <si>
+    <t>Balai</t>
+  </si>
+  <si>
+    <t>MatetoStar1!</t>
+  </si>
+  <si>
+    <t>2dac5c6c-f1d1-440b-a6bb-d4ca90ebf70b@mailslurp.net</t>
+  </si>
+  <si>
+    <t>2dac5c6c-f1d1-440b-a6bb-d4ca90ebf70b</t>
+  </si>
+  <si>
+    <t>Marcus</t>
+  </si>
+  <si>
+    <t>Rash</t>
+  </si>
+  <si>
+    <t>KliniGus1!</t>
+  </si>
+  <si>
+    <t>859c0ceb-1173-4683-81e0-76152ef3a9d2@mailslurp.net</t>
+  </si>
+  <si>
+    <t>859c0ceb-1173-4683-81e0-76152ef3a9d2</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Wahlberg</t>
+  </si>
+  <si>
+    <t>Matroska1!</t>
   </si>
 </sst>
 </file>
@@ -111,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -134,22 +179,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,78 +284,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,21 +300,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,19 +323,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,163 +479,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,7 +536,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,17 +556,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,31 +600,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,144 +619,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,12 +764,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1048,13 +1096,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="2" width="44.625" customWidth="1"/>
@@ -1084,7 +1132,7 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -1101,7 +1149,7 @@
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
@@ -1152,7 +1200,7 @@
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
@@ -1163,15 +1211,69 @@
       </c>
       <c r="E6" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="40cddbfe-f044-45a8-8466-25f5fafdb6d1@mailslurp.net" tooltip="mailto:40cddbfe-f044-45a8-8466-25f5fafdb6d1@mailslurp.net"/>
-    <hyperlink ref="A3" r:id="rId2" display="fd57d8a3-5a16-4a8c-9c79-350659373a73@mailslurp.net"/>
-    <hyperlink ref="A4" r:id="rId3" display="d8afdd9e-c6d7-4866-8bc4-4e58b37d25af@mailslurp.net"/>
-    <hyperlink ref="A5" r:id="rId4" display="0d5c4317-9e16-4f94-80ad-3fd5971977aa@mailslurp.net"/>
-    <hyperlink ref="A6" r:id="rId5" display="056c018f-1449-4806-a89b-a7aad97f6f19@mailslurp.net"/>
+    <hyperlink ref="A2" r:id="rId1" display="5c2a7826-bbf4-4bc7-bf59-095eb60e2a7e@mailslurp.net"/>
+    <hyperlink ref="A3" r:id="rId2" display="1106ad90-d4a8-43d9-8491-888273aaf8d1@mailslurp.net"/>
+    <hyperlink ref="A4" r:id="rId3" display="7186d82d-d436-4d19-8ae1-41a5fbcb17c8@mailslurp.net"/>
+    <hyperlink ref="A5" r:id="rId4" display="38984ee7-4b30-4681-8982-6a10144a1c61@mailslurp.net"/>
+    <hyperlink ref="A6" r:id="rId5" display="c9369e67-8a44-4946-b7ec-2b5e2311decc@mailslurp.net"/>
+    <hyperlink ref="A7" r:id="rId6" display="0eecb53e-7ecb-4305-ba02-d374a5735b8f@mailslurp.net"/>
+    <hyperlink ref="A8" r:id="rId7" display="2dac5c6c-f1d1-440b-a6bb-d4ca90ebf70b@mailslurp.net"/>
+    <hyperlink ref="A9" r:id="rId8" display="859c0ceb-1173-4683-81e0-76152ef3a9d2@mailslurp.net"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/user_candidate.xlsx
+++ b/user_candidate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12705" windowHeight="14550"/>
+    <workbookView windowWidth="28800" windowHeight="14730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>email</t>
   </si>
@@ -28,127 +28,118 @@
     <t>lastName</t>
   </si>
   <si>
+    <t>country</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
-    <t>5c2a7826-bbf4-4bc7-bf59-095eb60e2a7e@mailslurp.net</t>
-  </si>
-  <si>
-    <t>5c2a7826-bbf4-4bc7-bf59-095eb60e2a7e</t>
-  </si>
-  <si>
-    <t>Jadun</t>
-  </si>
-  <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t>Larahost1!</t>
-  </si>
-  <si>
-    <t>1106ad90-d4a8-43d9-8491-888273aaf8d1@mailslurp.net</t>
-  </si>
-  <si>
-    <t>1106ad90-d4a8-43d9-8491-888273aaf8d1</t>
-  </si>
-  <si>
-    <t>Junar</t>
-  </si>
-  <si>
-    <t>LinDoe</t>
-  </si>
-  <si>
-    <t>JunarAprilLin1!</t>
-  </si>
-  <si>
-    <t>7186d82d-d436-4d19-8ae1-41a5fbcb17c8@mailslurp.net</t>
-  </si>
-  <si>
-    <t>7186d82d-d436-4d19-8ae1-41a5fbcb17c8</t>
-  </si>
-  <si>
-    <t>Billy</t>
-  </si>
-  <si>
-    <t>LimDoe</t>
-  </si>
-  <si>
-    <t>MaskotJakarta1!</t>
-  </si>
-  <si>
-    <t>38984ee7-4b30-4681-8982-6a10144a1c61@mailslurp.net</t>
-  </si>
-  <si>
-    <t>38984ee7-4b30-4681-8982-6a10144a1c61</t>
-  </si>
-  <si>
-    <t>Lunar</t>
-  </si>
-  <si>
-    <t>Lake</t>
-  </si>
-  <si>
-    <t>UbuntuJurnal1!</t>
-  </si>
-  <si>
-    <t>c9369e67-8a44-4946-b7ec-2b5e2311decc@mailslurp.net</t>
-  </si>
-  <si>
-    <t>c9369e67-8a44-4946-b7ec-2b5e2311decc</t>
-  </si>
-  <si>
-    <t>JoshBus</t>
-  </si>
-  <si>
-    <t>Mate</t>
-  </si>
-  <si>
-    <t>JbMate011!</t>
-  </si>
-  <si>
-    <t>0eecb53e-7ecb-4305-ba02-d374a5735b8f@mailslurp.net</t>
-  </si>
-  <si>
-    <t>0eecb53e-7ecb-4305-ba02-d374a5735b8f</t>
-  </si>
-  <si>
-    <t>Holly</t>
-  </si>
-  <si>
-    <t>Balai</t>
-  </si>
-  <si>
-    <t>MatetoStar1!</t>
-  </si>
-  <si>
-    <t>2dac5c6c-f1d1-440b-a6bb-d4ca90ebf70b@mailslurp.net</t>
-  </si>
-  <si>
-    <t>2dac5c6c-f1d1-440b-a6bb-d4ca90ebf70b</t>
-  </si>
-  <si>
-    <t>Marcus</t>
-  </si>
-  <si>
-    <t>Rash</t>
-  </si>
-  <si>
-    <t>KliniGus1!</t>
-  </si>
-  <si>
-    <t>859c0ceb-1173-4683-81e0-76152ef3a9d2@mailslurp.net</t>
-  </si>
-  <si>
-    <t>859c0ceb-1173-4683-81e0-76152ef3a9d2</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Wahlberg</t>
-  </si>
-  <si>
-    <t>Matroska1!</t>
+    <t>5cb3eeb5-d41b-4b7d-9ae5-b7f480b83c65@mailslurp.net</t>
+  </si>
+  <si>
+    <t>5cb3eeb5-d41b-4b7d-9ae5-b7f480b83c65</t>
+  </si>
+  <si>
+    <t>Rojas</t>
+  </si>
+  <si>
+    <t>Mikel</t>
+  </si>
+  <si>
+    <t>United State</t>
+  </si>
+  <si>
+    <t>HollandB1!</t>
+  </si>
+  <si>
+    <t>e2b85f3d-f775-45fc-b3d3-0f4cb9e853cf@mailslurp.net</t>
+  </si>
+  <si>
+    <t>e2b85f3d-f775-45fc-b3d3-0f4cb9e853cf</t>
+  </si>
+  <si>
+    <t>Koala</t>
+  </si>
+  <si>
+    <t>Kumal</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>JurnalSplit1!</t>
+  </si>
+  <si>
+    <t>4b8d3f3b-0247-446d-98a6-d5e29f67ae34@mailslurp.net</t>
+  </si>
+  <si>
+    <t>4b8d3f3b-0247-446d-98a6-d5e29f67ae34</t>
+  </si>
+  <si>
+    <t>Magiss</t>
+  </si>
+  <si>
+    <t>Morrod</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Lolonahex1!</t>
+  </si>
+  <si>
+    <t>1ed96718-d9f8-4325-ad96-53660017fa9f@mailslurp.net</t>
+  </si>
+  <si>
+    <t>1ed96718-d9f8-4325-ad96-53660017fa9f</t>
+  </si>
+  <si>
+    <t>Mongking</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>SlurpBit1!</t>
+  </si>
+  <si>
+    <t>ad60523a-523f-448d-8134-0036aab93ac7@mailslurp.net</t>
+  </si>
+  <si>
+    <t>ad60523a-523f-448d-8134-0036aab93ac7</t>
+  </si>
+  <si>
+    <t>Hilman</t>
+  </si>
+  <si>
+    <t>Rocker</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>BitShips1!</t>
+  </si>
+  <si>
+    <t>0c838c26-0300-4beb-9123-d9460adbe786@mailslurp.net</t>
+  </si>
+  <si>
+    <t>0c838c26-0300-4beb-9123-d9460adbe786</t>
+  </si>
+  <si>
+    <t>Maili</t>
+  </si>
+  <si>
+    <t>Gunar</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Lombokindo1!</t>
   </si>
 </sst>
 </file>
@@ -156,9 +147,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -179,24 +170,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,15 +216,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,7 +254,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,29 +269,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,30 +284,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,187 +314,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,30 +505,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -552,6 +519,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,37 +586,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,142 +610,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,18 +755,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1096,22 +1081,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="2" width="44.625" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="5" max="6" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1127,153 +1112,138 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
+      <c r="F7" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="5c2a7826-bbf4-4bc7-bf59-095eb60e2a7e@mailslurp.net"/>
-    <hyperlink ref="A3" r:id="rId2" display="1106ad90-d4a8-43d9-8491-888273aaf8d1@mailslurp.net"/>
-    <hyperlink ref="A4" r:id="rId3" display="7186d82d-d436-4d19-8ae1-41a5fbcb17c8@mailslurp.net"/>
-    <hyperlink ref="A5" r:id="rId4" display="38984ee7-4b30-4681-8982-6a10144a1c61@mailslurp.net"/>
-    <hyperlink ref="A6" r:id="rId5" display="c9369e67-8a44-4946-b7ec-2b5e2311decc@mailslurp.net"/>
-    <hyperlink ref="A7" r:id="rId6" display="0eecb53e-7ecb-4305-ba02-d374a5735b8f@mailslurp.net"/>
-    <hyperlink ref="A8" r:id="rId7" display="2dac5c6c-f1d1-440b-a6bb-d4ca90ebf70b@mailslurp.net"/>
-    <hyperlink ref="A9" r:id="rId8" display="859c0ceb-1173-4683-81e0-76152ef3a9d2@mailslurp.net"/>
+    <hyperlink ref="A5" r:id="rId1" display="1ed96718-d9f8-4325-ad96-53660017fa9f@mailslurp.net" tooltip="mailto:1ed96718-d9f8-4325-ad96-53660017fa9f@mailslurp.net"/>
+    <hyperlink ref="A6" r:id="rId2" display="ad60523a-523f-448d-8134-0036aab93ac7@mailslurp.net" tooltip="mailto:ad60523a-523f-448d-8134-0036aab93ac7@mailslurp.net"/>
+    <hyperlink ref="A2" r:id="rId3" display="5cb3eeb5-d41b-4b7d-9ae5-b7f480b83c65@mailslurp.net" tooltip="mailto:5cb3eeb5-d41b-4b7d-9ae5-b7f480b83c65@mailslurp.net"/>
+    <hyperlink ref="A3" r:id="rId4" display="e2b85f3d-f775-45fc-b3d3-0f4cb9e853cf@mailslurp.net" tooltip="mailto:e2b85f3d-f775-45fc-b3d3-0f4cb9e853cf@mailslurp.net"/>
+    <hyperlink ref="A4" r:id="rId5" display="4b8d3f3b-0247-446d-98a6-d5e29f67ae34@mailslurp.net" tooltip="mailto:4b8d3f3b-0247-446d-98a6-d5e29f67ae34@mailslurp.net"/>
+    <hyperlink ref="A7" r:id="rId6" display="0c838c26-0300-4beb-9123-d9460adbe786@mailslurp.net" tooltip="mailto:0c838c26-0300-4beb-9123-d9460adbe786@mailslurp.net"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/user_candidate.xlsx
+++ b/user_candidate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>email</t>
   </si>
@@ -34,10 +34,31 @@
     <t>password</t>
   </si>
   <si>
-    <t>5cb3eeb5-d41b-4b7d-9ae5-b7f480b83c65@mailslurp.net</t>
-  </si>
-  <si>
-    <t>5cb3eeb5-d41b-4b7d-9ae5-b7f480b83c65</t>
+    <t>city</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>exCompany</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>adress</t>
+  </si>
+  <si>
+    <t>abae4168-f59c-4435-9565-fe85d0d5ab80@mailslurp.net</t>
+  </si>
+  <si>
+    <t>abae4168-f59c-4435-9565-fe85d0d5ab80</t>
   </si>
   <si>
     <t>Rojas</t>
@@ -52,94 +73,22 @@
     <t>HollandB1!</t>
   </si>
   <si>
-    <t>e2b85f3d-f775-45fc-b3d3-0f4cb9e853cf@mailslurp.net</t>
-  </si>
-  <si>
-    <t>e2b85f3d-f775-45fc-b3d3-0f4cb9e853cf</t>
-  </si>
-  <si>
-    <t>Koala</t>
-  </si>
-  <si>
-    <t>Kumal</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>JurnalSplit1!</t>
-  </si>
-  <si>
-    <t>4b8d3f3b-0247-446d-98a6-d5e29f67ae34@mailslurp.net</t>
-  </si>
-  <si>
-    <t>4b8d3f3b-0247-446d-98a6-d5e29f67ae34</t>
-  </si>
-  <si>
-    <t>Magiss</t>
-  </si>
-  <si>
-    <t>Morrod</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Lolonahex1!</t>
-  </si>
-  <si>
-    <t>1ed96718-d9f8-4325-ad96-53660017fa9f@mailslurp.net</t>
-  </si>
-  <si>
-    <t>1ed96718-d9f8-4325-ad96-53660017fa9f</t>
-  </si>
-  <si>
-    <t>Mongking</t>
-  </si>
-  <si>
-    <t>Jay</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>SlurpBit1!</t>
-  </si>
-  <si>
-    <t>ad60523a-523f-448d-8134-0036aab93ac7@mailslurp.net</t>
-  </si>
-  <si>
-    <t>ad60523a-523f-448d-8134-0036aab93ac7</t>
-  </si>
-  <si>
-    <t>Hilman</t>
-  </si>
-  <si>
-    <t>Rocker</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>BitShips1!</t>
-  </si>
-  <si>
-    <t>0c838c26-0300-4beb-9123-d9460adbe786@mailslurp.net</t>
-  </si>
-  <si>
-    <t>0c838c26-0300-4beb-9123-d9460adbe786</t>
-  </si>
-  <si>
-    <t>Maili</t>
-  </si>
-  <si>
-    <t>Gunar</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Lombokindo1!</t>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Software Development</t>
+  </si>
+  <si>
+    <t>PT Cipta Medika Informasi</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipisicing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Unnamed Road, Sekar Putih, SekarPutih, Bagor, Nganjuk</t>
   </si>
 </sst>
 </file>
@@ -147,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -170,6 +119,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -184,16 +164,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,14 +225,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -222,16 +232,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,37 +241,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,28 +253,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -314,25 +263,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +329,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,13 +347,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,127 +431,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +454,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -527,7 +491,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,30 +526,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -586,22 +541,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,144 +559,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,12 +704,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1081,22 +1033,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="2" width="44.625" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="6" width="24.125" customWidth="1"/>
+    <col min="7" max="9" width="23.375" customWidth="1"/>
+    <col min="10" max="10" width="31.625" customWidth="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1115,135 +1072,87 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>82231810001</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" display="1ed96718-d9f8-4325-ad96-53660017fa9f@mailslurp.net" tooltip="mailto:1ed96718-d9f8-4325-ad96-53660017fa9f@mailslurp.net"/>
-    <hyperlink ref="A6" r:id="rId2" display="ad60523a-523f-448d-8134-0036aab93ac7@mailslurp.net" tooltip="mailto:ad60523a-523f-448d-8134-0036aab93ac7@mailslurp.net"/>
-    <hyperlink ref="A2" r:id="rId3" display="5cb3eeb5-d41b-4b7d-9ae5-b7f480b83c65@mailslurp.net" tooltip="mailto:5cb3eeb5-d41b-4b7d-9ae5-b7f480b83c65@mailslurp.net"/>
-    <hyperlink ref="A3" r:id="rId4" display="e2b85f3d-f775-45fc-b3d3-0f4cb9e853cf@mailslurp.net" tooltip="mailto:e2b85f3d-f775-45fc-b3d3-0f4cb9e853cf@mailslurp.net"/>
-    <hyperlink ref="A4" r:id="rId5" display="4b8d3f3b-0247-446d-98a6-d5e29f67ae34@mailslurp.net" tooltip="mailto:4b8d3f3b-0247-446d-98a6-d5e29f67ae34@mailslurp.net"/>
-    <hyperlink ref="A7" r:id="rId6" display="0c838c26-0300-4beb-9123-d9460adbe786@mailslurp.net" tooltip="mailto:0c838c26-0300-4beb-9123-d9460adbe786@mailslurp.net"/>
+    <hyperlink ref="A2" r:id="rId1" display="abae4168-f59c-4435-9565-fe85d0d5ab80@mailslurp.net" tooltip="mailto:abae4168-f59c-4435-9565-fe85d0d5ab80@mailslurp.net"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/user_candidate.xlsx
+++ b/user_candidate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>email</t>
   </si>
@@ -55,25 +55,28 @@
     <t>adress</t>
   </si>
   <si>
-    <t>abae4168-f59c-4435-9565-fe85d0d5ab80@mailslurp.net</t>
-  </si>
-  <si>
-    <t>abae4168-f59c-4435-9565-fe85d0d5ab80</t>
-  </si>
-  <si>
-    <t>Rojas</t>
-  </si>
-  <si>
-    <t>Mikel</t>
-  </si>
-  <si>
-    <t>United State</t>
-  </si>
-  <si>
-    <t>HollandB1!</t>
-  </si>
-  <si>
-    <t>Washington</t>
+    <t>ff74b806-d326-4795-9576-0a42d9a86e71@mailslurp.net</t>
+  </si>
+  <si>
+    <t>ff74b806-d326-4795-9576-0a42d9a86e71</t>
+  </si>
+  <si>
+    <t>Magiss</t>
+  </si>
+  <si>
+    <t>Morrod</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>@Bekicot1</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>82231811103</t>
   </si>
   <si>
     <t>Software Development</t>
@@ -89,6 +92,87 @@
   </si>
   <si>
     <t>Unnamed Road, Sekar Putih, SekarPutih, Bagor, Nganjuk</t>
+  </si>
+  <si>
+    <t>cb38903d-9768-49b8-8793-22409b897521@mailslurp.net</t>
+  </si>
+  <si>
+    <t>cb38903d-9768-49b8-8793-22409b897521</t>
+  </si>
+  <si>
+    <t>Koala</t>
+  </si>
+  <si>
+    <t>Kumal</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>82231811102</t>
+  </si>
+  <si>
+    <t>44a94cd3-3307-40b7-8d27-08321627080a@mailslurp.net</t>
+  </si>
+  <si>
+    <t>44a94cd3-3307-40b7-8d27-08321627080a</t>
+  </si>
+  <si>
+    <t>Mongking</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Surabaya</t>
+  </si>
+  <si>
+    <t>82231811104</t>
+  </si>
+  <si>
+    <t>6ddea427-840b-4653-a1bb-c58127de84a2@mailslurp.net</t>
+  </si>
+  <si>
+    <t>6ddea427-840b-4653-a1bb-c58127de84a2</t>
+  </si>
+  <si>
+    <t>Hilman</t>
+  </si>
+  <si>
+    <t>Rocker</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Warsaw</t>
+  </si>
+  <si>
+    <t>82231811105</t>
+  </si>
+  <si>
+    <t>faa90c79-ede5-40f5-834d-cb815429e3d9@mailslurp.net</t>
+  </si>
+  <si>
+    <t>faa90c79-ede5-40f5-834d-cb815429e3d9</t>
+  </si>
+  <si>
+    <t>Maili</t>
+  </si>
+  <si>
+    <t>Gunar</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Kyiv</t>
+  </si>
+  <si>
+    <t>82231811106</t>
   </si>
 </sst>
 </file>
@@ -96,9 +180,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -125,14 +209,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -149,74 +225,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -225,15 +233,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,6 +321,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -269,181 +353,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,17 +541,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,11 +574,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,21 +604,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -540,17 +618,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,139 +643,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,8 +788,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
@@ -1033,20 +1120,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="2" width="44.625" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="6" width="24.125" customWidth="1"/>
-    <col min="7" max="9" width="23.375" customWidth="1"/>
+    <col min="7" max="7" width="23.375" customWidth="1"/>
+    <col min="8" max="8" width="23.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.375" customWidth="1"/>
     <col min="10" max="10" width="31.625" customWidth="1"/>
     <col min="11" max="11" width="14.75" customWidth="1"/>
     <col min="12" max="12" width="15.125" customWidth="1"/>
@@ -1075,7 +1164,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1095,10 +1184,10 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
@@ -1116,43 +1205,196 @@
       <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="H2">
-        <v>82231810001</v>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1"/>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1"/>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1"/>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="abae4168-f59c-4435-9565-fe85d0d5ab80@mailslurp.net" tooltip="mailto:abae4168-f59c-4435-9565-fe85d0d5ab80@mailslurp.net"/>
+    <hyperlink ref="A2" r:id="rId1" display="ff74b806-d326-4795-9576-0a42d9a86e71@mailslurp.net" tooltip="mailto:ff74b806-d326-4795-9576-0a42d9a86e71@mailslurp.net"/>
+    <hyperlink ref="A4" r:id="rId2" display="44a94cd3-3307-40b7-8d27-08321627080a@mailslurp.net" tooltip="mailto:44a94cd3-3307-40b7-8d27-08321627080a@mailslurp.net"/>
+    <hyperlink ref="A6" r:id="rId3" display="faa90c79-ede5-40f5-834d-cb815429e3d9@mailslurp.net" tooltip="mailto:faa90c79-ede5-40f5-834d-cb815429e3d9@mailslurp.net"/>
+    <hyperlink ref="A5" r:id="rId4" display="6ddea427-840b-4653-a1bb-c58127de84a2@mailslurp.net" tooltip="mailto:6ddea427-840b-4653-a1bb-c58127de84a2@mailslurp.net"/>
+    <hyperlink ref="A3" r:id="rId5" display="cb38903d-9768-49b8-8793-22409b897521@mailslurp.net" tooltip="mailto:cb38903d-9768-49b8-8793-22409b897521@mailslurp.net"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/user_candidate.xlsx
+++ b/user_candidate.xlsx
@@ -55,10 +55,10 @@
     <t>adress</t>
   </si>
   <si>
-    <t>ff74b806-d326-4795-9576-0a42d9a86e71@mailslurp.net</t>
-  </si>
-  <si>
-    <t>ff74b806-d326-4795-9576-0a42d9a86e71</t>
+    <t>rubiaha@outlook.com</t>
+  </si>
+  <si>
+    <t>abae4168-f59c-4435-9565-fe85d0d5ab82</t>
   </si>
   <si>
     <t>Magiss</t>
@@ -76,7 +76,7 @@
     <t>Toronto</t>
   </si>
   <si>
-    <t>82231811103</t>
+    <t>82231810103</t>
   </si>
   <si>
     <t>Software Development</t>
@@ -94,10 +94,10 @@
     <t>Unnamed Road, Sekar Putih, SekarPutih, Bagor, Nganjuk</t>
   </si>
   <si>
-    <t>cb38903d-9768-49b8-8793-22409b897521@mailslurp.net</t>
-  </si>
-  <si>
-    <t>cb38903d-9768-49b8-8793-22409b897521</t>
+    <t>jericatlima@outlook.com</t>
+  </si>
+  <si>
+    <t>abae4168-f59c-4435-9565-fe85d0d5ab81</t>
   </si>
   <si>
     <t>Koala</t>
@@ -112,13 +112,13 @@
     <t>Jakarta</t>
   </si>
   <si>
-    <t>82231811102</t>
-  </si>
-  <si>
-    <t>44a94cd3-3307-40b7-8d27-08321627080a@mailslurp.net</t>
-  </si>
-  <si>
-    <t>44a94cd3-3307-40b7-8d27-08321627080a</t>
+    <t>82231810102</t>
+  </si>
+  <si>
+    <t>chibicapa@outlook.com</t>
+  </si>
+  <si>
+    <t>abae4168-f59c-4435-9565-fe85d0d5ab83</t>
   </si>
   <si>
     <t>Mongking</t>
@@ -130,13 +130,13 @@
     <t>Surabaya</t>
   </si>
   <si>
-    <t>82231811104</t>
-  </si>
-  <si>
-    <t>6ddea427-840b-4653-a1bb-c58127de84a2@mailslurp.net</t>
-  </si>
-  <si>
-    <t>6ddea427-840b-4653-a1bb-c58127de84a2</t>
+    <t>82231810104</t>
+  </si>
+  <si>
+    <t>radiandrive@gmail.com</t>
+  </si>
+  <si>
+    <t>abae4168-f59c-4435-9565-fe85d0d5ab84</t>
   </si>
   <si>
     <t>Hilman</t>
@@ -151,13 +151,13 @@
     <t>Warsaw</t>
   </si>
   <si>
-    <t>82231811105</t>
-  </si>
-  <si>
-    <t>faa90c79-ede5-40f5-834d-cb815429e3d9@mailslurp.net</t>
-  </si>
-  <si>
-    <t>faa90c79-ede5-40f5-834d-cb815429e3d9</t>
+    <t>82231810105</t>
+  </si>
+  <si>
+    <t>dhiandrive@gmail.com</t>
+  </si>
+  <si>
+    <t>abae4168-f59c-4435-9565-fe85d0d5ab85</t>
   </si>
   <si>
     <t>Maili</t>
@@ -172,7 +172,7 @@
     <t>Kyiv</t>
   </si>
   <si>
-    <t>82231811106</t>
+    <t>82231810106</t>
   </si>
 </sst>
 </file>
@@ -180,10 +180,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -209,9 +209,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,90 +278,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,17 +330,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,181 +353,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,6 +538,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -555,21 +570,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,13 +604,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,17 +628,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,139 +643,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1390,11 +1390,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="ff74b806-d326-4795-9576-0a42d9a86e71@mailslurp.net" tooltip="mailto:ff74b806-d326-4795-9576-0a42d9a86e71@mailslurp.net"/>
-    <hyperlink ref="A4" r:id="rId2" display="44a94cd3-3307-40b7-8d27-08321627080a@mailslurp.net" tooltip="mailto:44a94cd3-3307-40b7-8d27-08321627080a@mailslurp.net"/>
-    <hyperlink ref="A6" r:id="rId3" display="faa90c79-ede5-40f5-834d-cb815429e3d9@mailslurp.net" tooltip="mailto:faa90c79-ede5-40f5-834d-cb815429e3d9@mailslurp.net"/>
-    <hyperlink ref="A5" r:id="rId4" display="6ddea427-840b-4653-a1bb-c58127de84a2@mailslurp.net" tooltip="mailto:6ddea427-840b-4653-a1bb-c58127de84a2@mailslurp.net"/>
-    <hyperlink ref="A3" r:id="rId5" display="cb38903d-9768-49b8-8793-22409b897521@mailslurp.net" tooltip="mailto:cb38903d-9768-49b8-8793-22409b897521@mailslurp.net"/>
+    <hyperlink ref="A2" r:id="rId1" display="rubiaha@outlook.com" tooltip="mailto:rubiaha@outlook.com"/>
+    <hyperlink ref="A4" r:id="rId2" display="chibicapa@outlook.com" tooltip="mailto:chibicapa@outlook.com"/>
+    <hyperlink ref="A6" r:id="rId3" display="dhiandrive@gmail.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="radiandrive@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId5" display="jericatlima@outlook.com" tooltip="mailto:jericatlima@outlook.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
